--- a/biology/Histoire de la zoologie et de la botanique/Charles_Jean_Louis_Delastre/Charles_Jean_Louis_Delastre.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Jean_Louis_Delastre/Charles_Jean_Louis_Delastre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Jean Louis Delastre, né le 17 novembre 1792 à Paris et mort le 17 août 1859 à Poitiers[1], est un avocat et un botaniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Jean Louis Delastre, né le 17 novembre 1792 à Paris et mort le 17 août 1859 à Poitiers, est un avocat et un botaniste français.
 Il est maire de Saint-Benoît et sous-préfet de Loudun, de Gien et de Melle. Il fait paraître une Flore analytique et description du département de la Vienne... (Meilhac, Paris, 1842).
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jean Dhombres (dir.) (1995). Aventures scientifiques. Savants en Poitou-Charentes du XVIe au XXe siècle. Les éditions de l’Actualité Poitou-Charentes (Poitiers) : 262 p.  (ISBN 2-911320-00-X)</t>
         </is>
